--- a/biology/Botanique/Jardin_Françoise-Giroud/Jardin_Françoise-Giroud.xlsx
+++ b/biology/Botanique/Jardin_Françoise-Giroud/Jardin_Françoise-Giroud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_Fran%C3%A7oise-Giroud</t>
+          <t>Jardin_Françoise-Giroud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Françoise-Giroud est un espace vert du 13e arrondissement de Paris situé au milieu du rond-point de la place d'Italie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_Fran%C3%A7oise-Giroud</t>
+          <t>Jardin_Françoise-Giroud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le 4, place d'Italie.
 Il est desservi par les lignes 5, 6 et 7 à la station Place d'Italie.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_Fran%C3%A7oise-Giroud</t>
+          <t>Jardin_Françoise-Giroud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jardin comporte un bassin central et un monument au maréchal Juin, dont la statue fait face à l'avenue d'Italie.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_Fran%C3%A7oise-Giroud</t>
+          <t>Jardin_Françoise-Giroud</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rend  hommage à la journaliste, écrivaine et femme politique française Françoise Giroud (1916-2003).
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jardin_Fran%C3%A7oise-Giroud</t>
+          <t>Jardin_Françoise-Giroud</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,11 +624,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancien « square de la Place-d'Italie », il prend le nom de « jardin Françoise-Giroud » le 8 mars 2015[1],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien « square de la Place-d'Italie », il prend le nom de « jardin Françoise-Giroud » le 8 mars 2015,.
 Situé au centre de la place d'Italie, il est le point de rencontre entre les quartiers des Gobelins et de la Butte-aux-Cailles et fait face, au sud, à l'avenue d'Italie.
-Le 16 novembre 2019, le parc est mis à sac lors d'un épisode du mouvement des Gilets Jaunes[3]. Le monument en l'honneur d'Alphonse Juin, situé dans la partie sud du jardin, est alors détruit lors de la manifestation[4]. 
+Le 16 novembre 2019, le parc est mis à sac lors d'un épisode du mouvement des Gilets Jaunes. Le monument en l'honneur d'Alphonse Juin, situé dans la partie sud du jardin, est alors détruit lors de la manifestation. 
 Depuis, le parc a été entièrement restauré. 
 </t>
         </is>
